--- a/DataTable/事件触发表.xlsx
+++ b/DataTable/事件触发表.xlsx
@@ -42,7 +42,9 @@
           </rPr>
           <t>1、数值改变
 2、开启新事件
-3、触发一个事件</t>
+3、触发一个事件
+8、神庙指定强化属性
+9、神庙随机强化属性</t>
         </r>
       </text>
     </comment>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>ALL</t>
   </si>
@@ -134,13 +136,13 @@
     <t>99</t>
   </si>
   <si>
-    <t>-3</t>
+    <t>-3,-3</t>
   </si>
   <si>
     <t>0102</t>
   </si>
   <si>
-    <t>废墟里买这一张破旧的地图</t>
+    <t>废墟里埋着一张破旧的地图，地图上有个位置被画上了红圈</t>
   </si>
   <si>
     <t>开启事件0909</t>
@@ -155,13 +157,103 @@
     <t>0201</t>
   </si>
   <si>
-    <t>0202</t>
-  </si>
-  <si>
-    <t>0301</t>
-  </si>
-  <si>
-    <t>0302</t>
+    <t>墙壁倒塌，墙后出现了一条隧道</t>
+  </si>
+  <si>
+    <t>触发事件0808</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0808</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>按下微弱的红色按钮</t>
+  </si>
+  <si>
+    <t>力量+1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>0802</t>
+  </si>
+  <si>
+    <t>按下微弱的绿色按钮</t>
+  </si>
+  <si>
+    <t>敏捷+1</t>
+  </si>
+  <si>
+    <t>0803</t>
+  </si>
+  <si>
+    <t>微弱的蓝色按钮</t>
+  </si>
+  <si>
+    <t>智力+1</t>
+  </si>
+  <si>
+    <t>0804</t>
+  </si>
+  <si>
+    <t>按下微弱的黄色按钮</t>
+  </si>
+  <si>
+    <t>幸运+1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>按下闪烁的红色按钮</t>
+  </si>
+  <si>
+    <t>力量±</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-3,3</t>
+  </si>
+  <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>按下闪烁的绿色按钮</t>
+  </si>
+  <si>
+    <t>敏捷±</t>
+  </si>
+  <si>
+    <t>0903</t>
+  </si>
+  <si>
+    <t>按下闪烁的蓝色按钮</t>
+  </si>
+  <si>
+    <t>智力±</t>
+  </si>
+  <si>
+    <t>0904</t>
+  </si>
+  <si>
+    <t>按下闪烁的黄色按钮</t>
+  </si>
+  <si>
+    <t>幸运±</t>
   </si>
 </sst>
 </file>
@@ -339,7 +431,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +453,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,16 +796,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,10 +817,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,28 +841,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -767,22 +871,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,19 +889,19 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,17 +910,23 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,6 +949,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -900,6 +1016,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFD7D7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1166,10 +1287,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1243,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3</v>
@@ -1328,53 +1449,206 @@
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
+      <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataTable/事件触发表.xlsx
+++ b/DataTable/事件触发表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubCangKu\GQLX\DataTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194B1D89-7E06-4AB4-9805-56890433231D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>ALL</t>
   </si>
@@ -124,13 +118,34 @@
     <t>变化值</t>
   </si>
   <si>
+    <t>解锁图鉴</t>
+  </si>
+  <si>
     <t>图片</t>
   </si>
   <si>
     <t>0101</t>
   </si>
   <si>
-    <t>你扭伤了手</t>
+    <t>大门被推开，室内一片凋零空寂，没有预想中的地毯家具挂画烛台，只有房间正中有一个漆黑深邃的洞穴，显得无比诡异，但你不知为何，不自觉地走进了洞穴</t>
+  </si>
+  <si>
+    <t>触发事件SJ#0102</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>SJ#0102</t>
+  </si>
+  <si>
+    <t>SJ#0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>大门虽然看起来破旧，但仍坚固异常，你使劲了浑身力气非但没有推开大门，还把手扭伤了。不过从大门的顶端掉下了一块精致的装饰品，你将他捡了起来。</t>
   </si>
   <si>
     <t>-3血量</t>
@@ -139,40 +154,94 @@
     <t>1</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>-3,-3</t>
-  </si>
-  <si>
-    <t>0102</t>
-  </si>
-  <si>
-    <t>废墟里埋着一张破旧的地图，地图上有个位置被画上了红圈</t>
-  </si>
-  <si>
-    <t>开启事件0909</t>
+    <t>99;98</t>
+  </si>
+  <si>
+    <t>-1,-1;100,100</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>你撬开了大门的门锁，但开锁的噪音似乎惊动了什么东西</t>
+  </si>
+  <si>
+    <t>开启事件SJ#0102</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>0909</t>
+    <t>SJ#0103</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>测试用结局</t>
+  </si>
+  <si>
+    <t>0105</t>
   </si>
   <si>
     <t>0201</t>
   </si>
   <si>
-    <t>墙壁倒塌，墙后出现了一条隧道</t>
-  </si>
-  <si>
-    <t>触发事件0808</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0808</t>
+    <t>98</t>
+  </si>
+  <si>
+    <t>50,50</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>怪物倒下时，从身上掉出了一本破旧的笔记，你将捡了起来</t>
+  </si>
+  <si>
+    <t>TJ#0102</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>经过一番激烈的缠斗，你终于将怪物打到，怪物倒下时，从身上掉出了一本破旧的笔记，你将捡了起来</t>
+  </si>
+  <si>
+    <t>99;1</t>
+  </si>
+  <si>
+    <t>-3,-3;2,2</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>怪物一头撞上了旁边的墙壁，倒在地上不再动弹。怪物倒下时，从身上掉出了一本破旧的笔记，你将捡了起来</t>
+  </si>
+  <si>
+    <t>99;2</t>
+  </si>
+  <si>
+    <t>-1,-1;1,1</t>
+  </si>
+  <si>
+    <t>0304</t>
   </si>
   <si>
     <t>0801</t>
@@ -265,8 +334,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,18 +357,156 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,25 +515,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,8 +555,170 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -354,14 +741,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -385,35 +1017,121 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFD7D7"/>
+      <color rgb="00FFD7D7"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -671,378 +1389,683 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="14.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="1" max="3" width="14.3796296296296" style="2" customWidth="1"/>
+    <col min="4" max="9" width="14.3796296296296" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.3796296296296" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.87962962962963" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="15.6" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" ht="15.6" spans="1:10">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:10">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:10">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:10">
+      <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="H10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:10">
+      <c r="A11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:10">
+      <c r="A12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="B12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:10">
+      <c r="A13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="B13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:10">
+      <c r="A14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:10">
+      <c r="A15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="B15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:10">
+      <c r="A16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:10">
+      <c r="A17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="H17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="I17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:10">
+      <c r="A18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="H18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="I18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:10">
+      <c r="A19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="B19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="B20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C20" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D20" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="10"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>